--- a/biology/Médecine/Membrane_interosseuse_de_la_jambe/Membrane_interosseuse_de_la_jambe.xlsx
+++ b/biology/Médecine/Membrane_interosseuse_de_la_jambe/Membrane_interosseuse_de_la_jambe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La membrane interosseuse de la jambe (ou ligament interosseux de la jambe) est une membrane fibreuse entre le tibia et la fibula et constituant une articulation fibreuse entre ces deux os.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La membrane interosseuse de la jambe s'étend entre le bord interosseux du tibia et la crête interosseuse de la fibula.
 Elle est constituée d'une mince lame aponévrotique composée de fibres obliques, qui pour la plupart s'étendent vers le bas et latéralement; quelques fibres cependant passent en sens inverse.
